--- a/conf_xlsx/Config_StartConfig.xlsx
+++ b/conf_xlsx/Config_StartConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{571C0F8F-433E-4B28-9052-06A747786DE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E713420-B9D5-4608-A896-1EADC76791A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3630" yWindow="5265" windowWidth="25185" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="2820" windowWidth="25320" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,7 +471,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -482,7 +482,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>11</v>
@@ -505,7 +505,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>12</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>13</v>

--- a/conf_xlsx/Config_StartConfig.xlsx
+++ b/conf_xlsx/Config_StartConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E713420-B9D5-4608-A896-1EADC76791A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BA1045-9D08-4694-9757-47D9D9F17904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="2820" windowWidth="25320" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="2820" windowWidth="25320" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -83,10 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"Type":"OuterConfig","Address":"127.0.0.1:20011"},{"Type":"InnerConfig","Address":"127.0.0.1:10011"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"Type":"OuterConfig","Address":"127.0.0.1:20012"},{"Type":"InnerConfig","Address":"127.0.0.1:10012"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -96,6 +92,10 @@
   </si>
   <si>
     <t>[{"Type":"InnerConfig","Address":"127.0.0.1:10013"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"Type":"OuterConfig","Address":"127.0.0.1:10025"},{"Type":"InnerConfig","Address":"127.0.0.1:10011"}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -428,7 +428,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -488,7 +488,7 @@
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -500,7 +500,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -511,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -522,7 +522,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/conf_xlsx/Config_StartConfig.xlsx
+++ b/conf_xlsx/Config_StartConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BA1045-9D08-4694-9757-47D9D9F17904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418C5281-38C6-4DDC-849F-525B03F07CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="2820" windowWidth="25320" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +96,14 @@
   </si>
   <si>
     <t>[{"Type":"OuterConfig","Address":"127.0.0.1:10025"},{"Type":"InnerConfig","Address":"127.0.0.1:10011"}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllServer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -470,60 +478,74 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/conf_xlsx/Config_StartConfig.xlsx
+++ b/conf_xlsx/Config_StartConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418C5281-38C6-4DDC-849F-525B03F07CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492EE854-32B2-4DF4-B1DF-D6951D6B1C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="2820" windowWidth="25320" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12240" yWindow="8955" windowWidth="25320" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>服务器id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AppType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,18 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Config</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Type":"OuterConfig","Address":"127.0.0.1:20010"},{"Type":"InnerConfig","Address":"127.0.0.1:10010"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,27 +67,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[{"Type":"OuterConfig","Address":"127.0.0.1:20012"},{"Type":"InnerConfig","Address":"127.0.0.1:10012"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Type":"InnerConfig","Address":"127.0.0.1:10014"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Type":"InnerConfig","Address":"127.0.0.1:10013"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"Type":"OuterConfig","Address":"127.0.0.1:10025"},{"Type":"InnerConfig","Address":"127.0.0.1:10011"}]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AllServer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]</t>
+    <t>外网地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内网地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OuterAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InnerAddress</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:10025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:10002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:20001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:20002</t>
+  </si>
+  <si>
+    <t>127.0.0.1:20004</t>
+  </si>
+  <si>
+    <t>127.0.0.1:20005</t>
+  </si>
+  <si>
+    <t>127.0.0.1:20006</t>
+  </si>
+  <si>
+    <t>127.0.0.1:20025</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>127.0.0.1:20007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进程id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,11 +167,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -436,23 +453,27 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="84.875" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="17.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -460,10 +481,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -471,10 +495,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -482,70 +509,86 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>4</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>15</v>
+      <c r="D9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/conf_xlsx/Config_StartConfig.xlsx
+++ b/conf_xlsx/Config_StartConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{492EE854-32B2-4DF4-B1DF-D6951D6B1C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEFF3CD-8101-4C5C-92C9-AC5A9C32BE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="8955" windowWidth="25320" windowHeight="13380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="285" windowWidth="25320" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/conf_xlsx/Config_StartConfig.xlsx
+++ b/conf_xlsx/Config_StartConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\Mu\ProjectGameServer\MiracleServer\etc_server\conf_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEFF3CD-8101-4C5C-92C9-AC5A9C32BE6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F289585C-B36D-4A93-91C3-3D90F5C2A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="285" windowWidth="25320" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1890" yWindow="2805" windowWidth="25320" windowHeight="13395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>127.0.0.1:10025</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1:10001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -453,7 +449,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -464,7 +460,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
@@ -512,10 +508,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -526,10 +522,10 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -543,7 +539,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -554,7 +550,7 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -565,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -576,7 +572,7 @@
         <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -587,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
